--- a/ModelStatistics.xlsx
+++ b/ModelStatistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Desktop\Skole\EPFL\ML\RoadSegmentation\ml-project-2-vikings_ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C13873-3183-475D-8E93-B59BAD7659C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E6D52D-6106-43E3-BACB-7DB01367BED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{7FCCE6A1-5ABE-4EAB-BC6C-F239061E3E4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Model statistics</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Dropout</t>
   </si>
   <si>
-    <t>0.5 on the hidden layers, training only</t>
-  </si>
-  <si>
     <t>softmax_cross_entropy_with_logits</t>
   </si>
   <si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>Patch size</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Numers of fully connected layers</t>
   </si>
 </sst>
 </file>
@@ -140,12 +143,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,12 +170,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}" name="Table1" displayName="Table1" ref="A6:N7" totalsRowShown="0">
-  <autoFilter ref="A6:N7" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}" name="Table1" displayName="Table1" ref="A6:O7" totalsRowShown="0">
+  <autoFilter ref="A6:O7" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{F1420763-A78E-4F78-9522-D8D04530A948}" name="Model"/>
     <tableColumn id="2" xr3:uid="{2D339404-0196-4A3E-BE85-442B3CF356FD}" name="Number of conv layers"/>
     <tableColumn id="3" xr3:uid="{392ADBA3-1AF5-4073-8D16-7FCF3DC2772B}" name="Number of pooling layers"/>
+    <tableColumn id="15" xr3:uid="{805FDEF5-42B4-44EE-BDA4-9EC5A9263500}" name="Numers of fully connected layers"/>
     <tableColumn id="4" xr3:uid="{10867FF4-34A3-4666-92BD-319353C8382F}" name="Learning rate"/>
     <tableColumn id="5" xr3:uid="{92DB129A-9B35-45A5-A397-653F53D6688E}" name="Epochs"/>
     <tableColumn id="6" xr3:uid="{0EE2D320-A818-43E1-9196-5022EB078153}" name="Loss function"/>
@@ -483,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A287B5-6B41-4873-897C-F54148B0E97E}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -494,66 +501,71 @@
     <col min="1" max="1" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.06640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -564,40 +576,43 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
       <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
       </c>
       <c r="N6" t="s">
         <v>19</v>
       </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -607,37 +622,40 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
       <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7">
         <v>16</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>16</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>66478</v>
       </c>
     </row>

--- a/ModelStatistics.xlsx
+++ b/ModelStatistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Desktop\Skole\EPFL\ML\RoadSegmentation\ml-project-2-vikings_ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E6D52D-6106-43E3-BACB-7DB01367BED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2268F6-1D1D-449E-B739-020F733CBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{7FCCE6A1-5ABE-4EAB-BC6C-F239061E3E4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Model statistics</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Numers of fully connected layers</t>
+  </si>
+  <si>
+    <t>Augmentation information</t>
   </si>
 </sst>
 </file>
@@ -170,9 +173,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}" name="Table1" displayName="Table1" ref="A6:O7" totalsRowShown="0">
-  <autoFilter ref="A6:O7" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}" name="Table1" displayName="Table1" ref="A6:P7" totalsRowShown="0">
+  <autoFilter ref="A6:P7" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F1420763-A78E-4F78-9522-D8D04530A948}" name="Model"/>
     <tableColumn id="2" xr3:uid="{2D339404-0196-4A3E-BE85-442B3CF356FD}" name="Number of conv layers"/>
     <tableColumn id="3" xr3:uid="{392ADBA3-1AF5-4073-8D16-7FCF3DC2772B}" name="Number of pooling layers"/>
@@ -188,6 +191,7 @@
     <tableColumn id="12" xr3:uid="{DCDA8E79-8D2E-417C-9E9D-A315A2A7D93D}" name="validation_size"/>
     <tableColumn id="13" xr3:uid="{8BF4E5E8-F12C-4CBA-B5CE-3CF7D6832973}" name="Patch size"/>
     <tableColumn id="14" xr3:uid="{4C0295E9-140C-4682-999A-2A638BA8C8A4}" name="Seed"/>
+    <tableColumn id="16" xr3:uid="{91771779-00BA-4C96-851A-430AB91BF9DA}" name="Augmentation information"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A287B5-6B41-4873-897C-F54148B0E97E}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -513,9 +517,10 @@
     <col min="13" max="13" width="15.06640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.9296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -529,7 +534,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -541,7 +546,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -553,7 +558,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -565,7 +570,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -611,8 +616,11 @@
       <c r="O6" t="s">
         <v>18</v>
       </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>

--- a/ModelStatistics.xlsx
+++ b/ModelStatistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Desktop\Skole\EPFL\ML\RoadSegmentation\ml-project-2-vikings_ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2268F6-1D1D-449E-B739-020F733CBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD8CBD-7F9E-49A1-A1D6-41FED21F8CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{7FCCE6A1-5ABE-4EAB-BC6C-F239061E3E4C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Model statistics</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Augmentation information</t>
+  </si>
+  <si>
+    <t>Baseline CNN augmented</t>
+  </si>
+  <si>
+    <t>All 1700 images</t>
   </si>
 </sst>
 </file>
@@ -173,8 +179,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}" name="Table1" displayName="Table1" ref="A6:P7" totalsRowShown="0">
-  <autoFilter ref="A6:P7" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}" name="Table1" displayName="Table1" ref="A6:P8" totalsRowShown="0">
+  <autoFilter ref="A6:P8" xr:uid="{82982CEC-EA5F-41AC-B400-7B7071D567C6}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F1420763-A78E-4F78-9522-D8D04530A948}" name="Model"/>
     <tableColumn id="2" xr3:uid="{2D339404-0196-4A3E-BE85-442B3CF356FD}" name="Number of conv layers"/>
@@ -494,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A287B5-6B41-4873-897C-F54148B0E97E}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.796875" customWidth="1"/>
@@ -666,6 +672,59 @@
       <c r="O7">
         <v>66478</v>
       </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>16</v>
+      </c>
+      <c r="O8">
+        <v>66478</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
